--- a/Letter - User Assignment Mapping.xlsx
+++ b/Letter - User Assignment Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://apnasite-my.sharepoint.com/personal/vilas_apnasite_in/Documents/02 MMEAC - Maha Mission Education and Career Council/00 Training/00 Full Time Courses/01 Full Stack/00 Assignments/03 Certificate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ketan Mali\OneDrive - Apnasite IT Services Private Limited\Desktop\letter\letter-assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="11_F25DC773A252ABDACC104895C9DB75845BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6A2FCB3-B877-42B1-BA14-4141C3DE01A0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1987EB5-E049-4DF8-9796-5724D5C9A3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="211">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -398,27 +398,15 @@
     <t>adarshovhal77@gmail.com</t>
   </si>
   <si>
-    <t>patilharsha917@gmail.com</t>
-  </si>
-  <si>
     <t>nileshgaik1212@gmail.com</t>
   </si>
   <si>
     <t>iramsayyad8@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">sagargurav5571@gmail.com </t>
-  </si>
-  <si>
-    <t>vedikakinholkar@gmail.com</t>
-  </si>
-  <si>
     <t>naitamhitesh5@gmail.com</t>
   </si>
   <si>
-    <t>abhishekbabar2003@gmail.com</t>
-  </si>
-  <si>
     <t>shwetag858@gmail.com</t>
   </si>
   <si>
@@ -434,24 +422,12 @@
     <t>surajhadavale29@gmail.com</t>
   </si>
   <si>
-    <t>akshay1surjuse@gmail.com</t>
-  </si>
-  <si>
     <t>raveeshrajput255@gmail.com</t>
   </si>
   <si>
     <t>mbhosle061@gmail.com</t>
   </si>
   <si>
-    <t>bhushandhongade9762@gmail.com</t>
-  </si>
-  <si>
-    <t>rutujaganjure07@gmail.com</t>
-  </si>
-  <si>
-    <t>kaivalyakulkarni155@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pratik </t>
   </si>
   <si>
@@ -639,6 +615,60 @@
   </si>
   <si>
     <t>designs /186.jpg</t>
+  </si>
+  <si>
+    <t>Renuka</t>
+  </si>
+  <si>
+    <t>Adarsh</t>
+  </si>
+  <si>
+    <t>Nilesh</t>
+  </si>
+  <si>
+    <t>Dahad</t>
+  </si>
+  <si>
+    <t>Ovhal</t>
+  </si>
+  <si>
+    <t>Namrata</t>
+  </si>
+  <si>
+    <t>Kothmire</t>
+  </si>
+  <si>
+    <t>Gayakwad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iram </t>
+  </si>
+  <si>
+    <t>Sayyad</t>
+  </si>
+  <si>
+    <t>Pawabha</t>
+  </si>
+  <si>
+    <t>Gayar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akashay </t>
+  </si>
+  <si>
+    <t>Dhamane</t>
+  </si>
+  <si>
+    <t>Mahesh</t>
+  </si>
+  <si>
+    <t>Bhosale</t>
+  </si>
+  <si>
+    <t>Machindra</t>
+  </si>
+  <si>
+    <t>Kolape</t>
   </si>
 </sst>
 </file>
@@ -1300,17 +1330,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70:C72"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
@@ -1999,7 +2029,7 @@
         <v>designs/37.jpg</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2071,7 +2101,7 @@
         <v>designs/41.jpg</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2089,12 +2119,16 @@
         <v>designs/42.jpg</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75">
+    <row r="44" spans="1:5" ht="15.5">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>196</v>
+      </c>
       <c r="D44" s="34" t="s">
         <v>116</v>
       </c>
@@ -2103,12 +2137,16 @@
         <v>designs/43.jpg</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75">
+    <row r="45" spans="1:5" ht="15.5">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
+      <c r="B45" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="D45" s="35" t="s">
         <v>117</v>
       </c>
@@ -2117,12 +2155,16 @@
         <v>designs/44.jpg</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75">
+    <row r="46" spans="1:5" ht="15.5">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="16"/>
+      <c r="B46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>199</v>
+      </c>
       <c r="D46" s="34" t="s">
         <v>118</v>
       </c>
@@ -2131,12 +2173,16 @@
         <v>designs/45.jpg</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75">
+    <row r="47" spans="1:5" ht="15.5">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="14"/>
+      <c r="B47" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>197</v>
+      </c>
       <c r="D47" s="35" t="s">
         <v>119</v>
       </c>
@@ -2145,110 +2191,118 @@
         <v>designs/46.jpg</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75">
+    <row r="48" spans="1:5" ht="15.5">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="16"/>
-      <c r="D48" s="34" t="s">
-        <v>120</v>
-      </c>
+      <c r="D48" s="34"/>
       <c r="E48" t="str">
         <f t="shared" si="2"/>
         <v>designs/47.jpg</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75">
+    <row r="49" spans="1:5" ht="15.5">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
+      <c r="B49" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="D49" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="2"/>
         <v>designs/48.jpg</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75">
+    <row r="50" spans="1:5" ht="15.5">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="6"/>
+      <c r="B50" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>202</v>
+      </c>
       <c r="D50" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="2"/>
         <v>designs/49.jpg</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75">
+    <row r="51" spans="1:5" ht="15.5">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="35" t="s">
-        <v>123</v>
-      </c>
+      <c r="D51" s="35"/>
       <c r="E51" t="str">
         <f t="shared" si="2"/>
         <v>designs/50.jpg</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75">
+    <row r="52" spans="1:5" ht="15.5">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="16"/>
-      <c r="D52" s="34" t="s">
-        <v>124</v>
-      </c>
+      <c r="D52" s="34"/>
       <c r="E52" t="str">
         <f t="shared" si="2"/>
         <v>designs/51.jpg</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75">
+    <row r="53" spans="1:5" ht="15.5">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
+      <c r="B53" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="D53" s="35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="2"/>
         <v>designs/52.jpg</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75">
+    <row r="54" spans="1:5" ht="15.5">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="16"/>
-      <c r="D54" s="34" t="s">
-        <v>126</v>
-      </c>
+      <c r="D54" s="34"/>
       <c r="E54" t="str">
         <f t="shared" si="2"/>
         <v>designs/53.jpg</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75">
+    <row r="55" spans="1:5" ht="15.5">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
+      <c r="B55" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D55" s="35" t="s">
         <v>26</v>
       </c>
@@ -2257,187 +2311,195 @@
         <v>designs/54.jpg</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75">
+    <row r="56" spans="1:5" ht="15.5">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="16"/>
+      <c r="B56" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>204</v>
+      </c>
       <c r="D56" s="34" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="2"/>
         <v>designs/55.jpg</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75">
+    <row r="57" spans="1:5" ht="15.5">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
       <c r="D57" s="35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="2"/>
         <v>designs/56.jpg</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75">
+    <row r="58" spans="1:5" ht="15.5">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="16"/>
+      <c r="B58" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>206</v>
+      </c>
       <c r="D58" s="34" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="2"/>
         <v>designs/57.jpg</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75">
+    <row r="59" spans="1:5" ht="15.5">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
       <c r="D59" s="35" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="2"/>
         <v>designs/58.jpg</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75">
+    <row r="60" spans="1:5" ht="15.5">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="16"/>
       <c r="D60" s="34" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="2"/>
         <v>designs/59.jpg</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75">
+    <row r="61" spans="1:5" ht="15.5">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="35" t="s">
-        <v>132</v>
-      </c>
+      <c r="D61" s="35"/>
       <c r="E61" t="str">
         <f t="shared" si="2"/>
         <v>designs/60.jpg</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75">
+    <row r="62" spans="1:5" ht="15.5">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="16"/>
+      <c r="B62" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>151</v>
+      </c>
       <c r="D62" s="34" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="2"/>
         <v>designs/61.jpg</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75">
+    <row r="63" spans="1:5" ht="15.5">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
+      <c r="B63" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="D63" s="35" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="2"/>
         <v>designs/62.jpg</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75">
+    <row r="64" spans="1:5" ht="15.5">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="16"/>
-      <c r="D64" s="34" t="s">
-        <v>135</v>
-      </c>
+      <c r="D64" s="34"/>
       <c r="E64" t="str">
         <f t="shared" si="2"/>
         <v>designs/63.jpg</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75">
+    <row r="65" spans="1:5" ht="15.5">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="35" t="s">
-        <v>136</v>
-      </c>
+      <c r="D65" s="35"/>
       <c r="E65" t="str">
         <f t="shared" si="2"/>
         <v>designs/64.jpg</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75">
+    <row r="66" spans="1:5" ht="15.5">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="16"/>
-      <c r="D66" s="34" t="s">
-        <v>137</v>
-      </c>
+      <c r="D66" s="34"/>
       <c r="E66" t="str">
         <f t="shared" si="2"/>
         <v>designs/65.jpg</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75">
+    <row r="67" spans="1:5" ht="15.5">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="2"/>
         <v>designs/66.jpg</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75">
+    <row r="68" spans="1:5" ht="15.5">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D68" s="34"/>
       <c r="E68" t="str">
@@ -2445,15 +2507,15 @@
         <v>designs/67.jpg</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75">
+    <row r="69" spans="1:5" ht="15.5">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" t="str">
@@ -2461,15 +2523,15 @@
         <v>designs/68.jpg</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75">
+    <row r="70" spans="1:5" ht="15.5">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D70" s="36"/>
       <c r="E70" t="str">
@@ -2477,15 +2539,15 @@
         <v>designs/69.jpg</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75">
+    <row r="71" spans="1:5" ht="15.5">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D71" s="37"/>
       <c r="E71" t="str">
@@ -2493,15 +2555,15 @@
         <v>designs/70.jpg</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75">
+    <row r="72" spans="1:5" ht="15.5">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D72" s="38"/>
       <c r="E72" t="str">
@@ -2509,44 +2571,48 @@
         <v>designs/71.jpg</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75">
+    <row r="73" spans="1:5" ht="15.5">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="5"/>
+      <c r="B73" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>210</v>
+      </c>
       <c r="D73" s="39" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="2"/>
         <v>designs/72.jpg</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75">
+    <row r="74" spans="1:5" ht="15.5">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="2"/>
         <v>designs/73.jpg</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75">
+    <row r="75" spans="1:5" ht="15.5">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>25</v>
@@ -2556,12 +2622,12 @@
         <v>designs/74.jpg</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75">
+    <row r="76" spans="1:5" ht="15.5">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>10</v>
@@ -2571,102 +2637,102 @@
         <v>designs/75.jpg</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75">
+    <row r="77" spans="1:5" ht="15.5">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="3"/>
         <v>designs/76.jpg</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75">
+    <row r="78" spans="1:5" ht="15.5">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="3"/>
         <v>designs/77.jpg</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75">
+    <row r="79" spans="1:5" ht="15.5">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="3"/>
         <v>designs/78.jpg</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75">
+    <row r="80" spans="1:5" ht="15.5">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="3"/>
         <v>designs/79.jpg</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75">
+    <row r="81" spans="1:5" ht="15.5">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="3"/>
         <v>designs/80.jpg</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75">
+    <row r="82" spans="1:5" ht="15.5">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="3"/>
         <v>designs/81.jpg</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75">
+    <row r="83" spans="1:5" ht="15.5">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>34</v>
@@ -2676,57 +2742,57 @@
         <v>designs/82.jpg</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75">
+    <row r="84" spans="1:5" ht="15.5">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="3"/>
         <v>designs/83.jpg</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75">
+    <row r="85" spans="1:5" ht="15.5">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="3"/>
         <v>designs/84.jpg</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75">
+    <row r="86" spans="1:5" ht="15.5">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="3"/>
         <v>designs/85.jpg</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75">
+    <row r="87" spans="1:5" ht="15.5">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>34</v>
@@ -2736,52 +2802,52 @@
         <v>designs/86.jpg</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.75">
+    <row r="88" spans="1:5" ht="15.5">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="3"/>
         <v>designs/87.jpg</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.75">
+    <row r="89" spans="1:5" ht="15.5">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="3"/>
         <v>designs/88.jpg</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75">
+    <row r="90" spans="1:5" ht="15.5">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="3"/>
         <v>designs/89.jpg</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.75">
+    <row r="91" spans="1:5" ht="15.5">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2792,7 +2858,7 @@
         <v>designs/90.jpg</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75">
+    <row r="92" spans="1:5" ht="15.5">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2803,7 +2869,7 @@
         <v>designs/91.jpg</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75">
+    <row r="93" spans="1:5" ht="15.5">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2814,7 +2880,7 @@
         <v>designs/92.jpg</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75">
+    <row r="94" spans="1:5" ht="15.5">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2825,7 +2891,7 @@
         <v>designs/93.jpg</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75">
+    <row r="95" spans="1:5" ht="15.5">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2836,7 +2902,7 @@
         <v>designs/94.jpg</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.75">
+    <row r="96" spans="1:5" ht="15.5">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2847,7 +2913,7 @@
         <v>designs/95.jpg</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.75">
+    <row r="97" spans="1:5" ht="15.5">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2858,7 +2924,7 @@
         <v>designs/96.jpg</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75">
+    <row r="98" spans="1:5" ht="15.5">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2869,7 +2935,7 @@
         <v>designs/97.jpg</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.75">
+    <row r="99" spans="1:5" ht="15.5">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2880,7 +2946,7 @@
         <v>designs/98.jpg</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75">
+    <row r="100" spans="1:5" ht="15.5">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2891,7 +2957,7 @@
         <v>designs/99.jpg</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.75">
+    <row r="101" spans="1:5" ht="15.5">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2902,7 +2968,7 @@
         <v>designs/100.jpg</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.75">
+    <row r="102" spans="1:5" ht="15.5">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2913,7 +2979,7 @@
         <v>designs/101.jpg</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75">
+    <row r="103" spans="1:5" ht="15.5">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2924,7 +2990,7 @@
         <v>designs/102.jpg</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75">
+    <row r="104" spans="1:5" ht="15.5">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2935,7 +3001,7 @@
         <v>designs/103.jpg</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75">
+    <row r="105" spans="1:5" ht="15.5">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2946,7 +3012,7 @@
         <v>designs/104.jpg</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15">
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2957,7 +3023,7 @@
         <v>designs/105.jpg</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75">
+    <row r="107" spans="1:5" ht="15.5">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2968,7 +3034,7 @@
         <v>designs/106.jpg</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.75">
+    <row r="108" spans="1:5" ht="15.5">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2979,7 +3045,7 @@
         <v>designs/107.jpg</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.75">
+    <row r="109" spans="1:5" ht="15.5">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2990,7 +3056,7 @@
         <v>designs/108.jpg</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.75">
+    <row r="110" spans="1:5" ht="15.5">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3001,7 +3067,7 @@
         <v>designs/109.jpg</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.75">
+    <row r="111" spans="1:5" ht="15.5">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3012,7 +3078,7 @@
         <v>designs/110.jpg</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75">
+    <row r="112" spans="1:5" ht="15.5">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3023,7 +3089,7 @@
         <v>designs/111.jpg</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.75">
+    <row r="113" spans="1:5" ht="15.5">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3034,7 +3100,7 @@
         <v>designs/112.jpg</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75">
+    <row r="114" spans="1:5" ht="15.5">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3045,7 +3111,7 @@
         <v>designs/113.jpg</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.75">
+    <row r="115" spans="1:5" ht="15.5">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3056,7 +3122,7 @@
         <v>designs/114.jpg</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.75">
+    <row r="116" spans="1:5" ht="15.5">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3067,7 +3133,7 @@
         <v>designs/115.jpg</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15.75">
+    <row r="117" spans="1:5" ht="15.5">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3078,7 +3144,7 @@
         <v>designs/116.jpg</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.75">
+    <row r="118" spans="1:5" ht="15.5">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3089,7 +3155,7 @@
         <v>designs/117.jpg</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75">
+    <row r="119" spans="1:5" ht="15.5">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3100,7 +3166,7 @@
         <v>designs/118.jpg</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.75">
+    <row r="120" spans="1:5" ht="15.5">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3111,7 +3177,7 @@
         <v>designs/119.jpg</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15.75">
+    <row r="121" spans="1:5" ht="15.5">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3122,7 +3188,7 @@
         <v>designs/120.jpg</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15">
+    <row r="122" spans="1:5">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3133,7 +3199,7 @@
         <v>designs/121.jpg</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15">
+    <row r="123" spans="1:5">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3144,7 +3210,7 @@
         <v>designs/122.jpg</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15">
+    <row r="124" spans="1:5">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3155,7 +3221,7 @@
         <v>designs/123.jpg</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15">
+    <row r="125" spans="1:5">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3166,7 +3232,7 @@
         <v>designs/124.jpg</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15">
+    <row r="126" spans="1:5">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3177,7 +3243,7 @@
         <v>designs/125.jpg</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15">
+    <row r="127" spans="1:5">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3188,7 +3254,7 @@
         <v>designs/126.jpg</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15">
+    <row r="128" spans="1:5">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3199,7 +3265,7 @@
         <v>designs/127.jpg</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15">
+    <row r="129" spans="1:5">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3210,7 +3276,7 @@
         <v>designs/128.jpg</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15">
+    <row r="130" spans="1:5">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3221,7 +3287,7 @@
         <v>designs/129.jpg</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15">
+    <row r="131" spans="1:5">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3232,7 +3298,7 @@
         <v>designs/130.jpg</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15">
+    <row r="132" spans="1:5">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3243,7 +3309,7 @@
         <v>designs/131.jpg</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="17.25">
+    <row r="133" spans="1:5" ht="16.5">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3254,7 +3320,7 @@
         <v>designs/132.jpg</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="17.25">
+    <row r="134" spans="1:5" ht="16.5">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3265,7 +3331,7 @@
         <v>designs/133.jpg</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="16.5">
+    <row r="135" spans="1:5" ht="15">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3276,7 +3342,7 @@
         <v>designs/134.jpg</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="16.5">
+    <row r="136" spans="1:5" ht="15">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3287,7 +3353,7 @@
         <v>designs/135.jpg</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="16.5">
+    <row r="137" spans="1:5" ht="15">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3298,7 +3364,7 @@
         <v>designs/136.jpg</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="16.5">
+    <row r="138" spans="1:5" ht="15">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3309,7 +3375,7 @@
         <v>designs/137.jpg</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="16.5">
+    <row r="139" spans="1:5" ht="15">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3320,18 +3386,18 @@
         <v>designs/138.jpg</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="16.5">
+    <row r="140" spans="1:5" ht="15">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" s="12"/>
       <c r="C140" s="22"/>
       <c r="E140" t="str">
-        <f t="shared" ref="E140:E155" si="5">_xlfn.CONCAT("designs/",TEXT(A140,"00"),".jpg")</f>
+        <f t="shared" ref="E140:E154" si="5">_xlfn.CONCAT("designs/",TEXT(A140,"00"),".jpg")</f>
         <v>designs/139.jpg</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="16.5">
+    <row r="141" spans="1:5" ht="15">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3342,7 +3408,7 @@
         <v>designs/140.jpg</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="16.5">
+    <row r="142" spans="1:5" ht="15">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3353,7 +3419,7 @@
         <v>designs/141.jpg</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="16.5">
+    <row r="143" spans="1:5" ht="15">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3364,7 +3430,7 @@
         <v>designs/142.jpg</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15">
+    <row r="144" spans="1:5">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3375,7 +3441,7 @@
         <v>designs/143.jpg</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15">
+    <row r="145" spans="1:5">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3386,7 +3452,7 @@
         <v>designs/144.jpg</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15">
+    <row r="146" spans="1:5">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3397,7 +3463,7 @@
         <v>designs/145.jpg</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15">
+    <row r="147" spans="1:5">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3408,7 +3474,7 @@
         <v>designs/146.jpg</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15">
+    <row r="148" spans="1:5">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3419,7 +3485,7 @@
         <v>designs/147.jpg</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15">
+    <row r="149" spans="1:5">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3430,7 +3496,7 @@
         <v>designs/148.jpg</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15">
+    <row r="150" spans="1:5">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3441,7 +3507,7 @@
         <v>designs/149.jpg</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15">
+    <row r="151" spans="1:5">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3452,7 +3518,7 @@
         <v>designs/150.jpg</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15">
+    <row r="152" spans="1:5">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3463,7 +3529,7 @@
         <v>designs/151.jpg</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15">
+    <row r="153" spans="1:5">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3474,7 +3540,7 @@
         <v>designs/152.jpg</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15">
+    <row r="154" spans="1:5">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3485,7 +3551,7 @@
         <v>designs/153.jpg</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15">
+    <row r="155" spans="1:5">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3496,243 +3562,243 @@
         <v>designs/154.jpg</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15">
+    <row r="156" spans="1:5">
       <c r="C156" s="23"/>
       <c r="E156" t="str">
         <f>_xlfn.CONCAT("designs/",TEXT(A155,"00"),".jpg")</f>
         <v>designs/154.jpg</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15">
+    <row r="157" spans="1:5">
       <c r="C157" s="23"/>
       <c r="E157" t="str">
         <f>_xlfn.CONCAT("designs/",TEXT(A155,"156"),".jpg")</f>
         <v>designs/156.jpg</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15">
+    <row r="158" spans="1:5">
       <c r="C158" s="23"/>
       <c r="E158" t="str">
         <f>_xlfn.CONCAT("designs/",TEXT(A155,"157"),".jpg")</f>
         <v>designs/157.jpg</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15">
+    <row r="159" spans="1:5">
       <c r="C159" s="23"/>
       <c r="E159" t="str">
         <f>_xlfn.CONCAT("designs/",TEXT(A155,"158"),".jpg")</f>
         <v>designs/158.jpg</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15">
+    <row r="160" spans="1:5">
       <c r="C160" s="23"/>
       <c r="E160" t="str">
         <f>_xlfn.CONCAT("designs/",TEXT(A155,"159"),".jpg")</f>
         <v>designs/159.jpg</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15">
+    <row r="161" spans="1:7">
       <c r="C161" s="23"/>
       <c r="E161" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="C162" s="23"/>
       <c r="E162" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="24"/>
       <c r="B163" s="17"/>
       <c r="C163" s="17"/>
       <c r="D163" s="14"/>
       <c r="E163" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="25"/>
     </row>
-    <row r="164" spans="1:7" ht="15">
+    <row r="164" spans="1:7">
       <c r="A164" s="26"/>
       <c r="B164" s="28"/>
       <c r="C164" s="29"/>
       <c r="D164" s="6"/>
       <c r="E164" s="6" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="27"/>
     </row>
-    <row r="165" spans="1:7" ht="15">
+    <row r="165" spans="1:7">
       <c r="A165" s="24"/>
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
       <c r="D165" s="14"/>
       <c r="E165" s="14" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F165" s="14"/>
       <c r="G165" s="25"/>
     </row>
-    <row r="166" spans="1:7" ht="15">
+    <row r="166" spans="1:7">
       <c r="A166" s="26"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="E166" s="6" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F166" s="6"/>
     </row>
-    <row r="167" spans="1:7" ht="15">
+    <row r="167" spans="1:7">
       <c r="A167" s="24"/>
       <c r="B167" s="14"/>
       <c r="C167" s="14"/>
       <c r="D167" s="14"/>
       <c r="E167" s="14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F167" s="14"/>
     </row>
-    <row r="168" spans="1:7" ht="15">
+    <row r="168" spans="1:7">
       <c r="A168" s="26"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
       <c r="E168" s="6" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F168" s="6"/>
     </row>
-    <row r="169" spans="1:7" ht="15">
+    <row r="169" spans="1:7">
       <c r="A169" s="24"/>
       <c r="B169" s="14"/>
       <c r="C169" s="14"/>
       <c r="D169" s="14"/>
       <c r="E169" s="14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F169" s="14"/>
     </row>
-    <row r="170" spans="1:7" ht="15">
+    <row r="170" spans="1:7">
       <c r="A170" s="26"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="E170" s="6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F170" s="6"/>
     </row>
-    <row r="171" spans="1:7" ht="15">
+    <row r="171" spans="1:7">
       <c r="A171" s="24"/>
       <c r="B171" s="14"/>
       <c r="C171" s="14"/>
       <c r="D171" s="14"/>
       <c r="E171" s="14" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F171" s="14"/>
     </row>
-    <row r="172" spans="1:7" ht="15">
+    <row r="172" spans="1:7">
       <c r="A172" s="26"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
       <c r="E172" s="6" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F172" s="6"/>
     </row>
-    <row r="173" spans="1:7" ht="15">
+    <row r="173" spans="1:7">
       <c r="A173" s="24"/>
       <c r="B173" s="14"/>
       <c r="C173" s="30"/>
       <c r="D173" s="14"/>
       <c r="E173" s="14" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F173" s="14"/>
     </row>
-    <row r="174" spans="1:7" ht="15">
+    <row r="174" spans="1:7">
       <c r="A174" s="26"/>
       <c r="B174" s="6"/>
       <c r="C174" s="31"/>
       <c r="D174" s="6"/>
       <c r="E174" s="6" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F174" s="6"/>
     </row>
-    <row r="175" spans="1:7" ht="15">
+    <row r="175" spans="1:7">
       <c r="A175" s="24"/>
       <c r="B175" s="14"/>
       <c r="C175" s="30"/>
       <c r="D175" s="14"/>
       <c r="E175" s="14" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F175" s="14"/>
     </row>
-    <row r="176" spans="1:7" ht="15">
+    <row r="176" spans="1:7">
       <c r="A176" s="26"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
       <c r="E176" s="6" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F176" s="6"/>
     </row>
-    <row r="177" spans="1:6" ht="15">
+    <row r="177" spans="1:6">
       <c r="A177" s="24"/>
       <c r="B177" s="14"/>
       <c r="C177" s="30"/>
       <c r="D177" s="14"/>
       <c r="E177" s="14" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F177" s="14"/>
     </row>
-    <row r="178" spans="1:6" ht="15">
+    <row r="178" spans="1:6">
       <c r="A178" s="26"/>
       <c r="B178" s="6"/>
       <c r="C178" s="31"/>
       <c r="D178" s="6"/>
       <c r="E178" s="6" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F178" s="6"/>
     </row>
-    <row r="179" spans="1:6" ht="15">
+    <row r="179" spans="1:6">
       <c r="A179" s="24"/>
       <c r="B179" s="14"/>
       <c r="C179" s="30"/>
       <c r="D179" s="14"/>
       <c r="E179" s="14" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F179" s="14"/>
     </row>
-    <row r="180" spans="1:6" ht="15">
+    <row r="180" spans="1:6">
       <c r="A180" s="26"/>
       <c r="B180" s="6"/>
       <c r="C180" s="31"/>
       <c r="D180" s="6"/>
       <c r="E180" s="6" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F180" s="6"/>
     </row>
-    <row r="181" spans="1:6" ht="15">
+    <row r="181" spans="1:6">
       <c r="A181" s="32"/>
       <c r="B181" s="15"/>
       <c r="C181" s="33"/>
       <c r="D181" s="15"/>
       <c r="E181" s="15" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F181" s="15"/>
     </row>
